--- a/report/results/mabrouka/INterface Values.xlsx
+++ b/report/results/mabrouka/INterface Values.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Density</t>
   </si>
@@ -106,14 +106,58 @@
   </si>
   <si>
     <t>Unification_patrons.java</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>D + U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D + U + R</t>
+  </si>
+  <si>
+    <t>D + U + R + Seq</t>
+  </si>
+  <si>
+    <t>D + U + R + Seq + G</t>
+  </si>
+  <si>
+    <t>D + U + R + Seq + G + Sim</t>
+  </si>
+  <si>
+    <t>D + U + R + Seq + G + Sim + Sym</t>
+  </si>
+  <si>
+    <t>D + U + R + Seq + G + Sim + Sym + H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -149,17 +193,2203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grouping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simplicity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Symmetry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Acceuil.java</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Affichage.java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AffichageInfo.java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apropos.java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadre.java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FenetrPrincipale.java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GestionStagiaire.java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gestion_des_patrons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Graphic.java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImageColors.java</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImageDialog.java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ImageToPng.java</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Main.java</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MenuPrincipal.java</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PDFAddImage.java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PDFOptions.java </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PDFParseText.java</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PDFReplaceText.java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ResizeDilog.java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rotate.java</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unification_patrons.java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$2:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1552799216"/>
+        <c:axId val="-1552798128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1552799216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1552798128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1552798128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1552799216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +2431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +2463,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +2498,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,21 +2674,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="8" width="11.44140625" style="2"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -485,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -514,7 +2746,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -543,7 +2775,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -572,7 +2804,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -601,7 +2833,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -630,7 +2862,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -659,7 +2891,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -688,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -717,7 +2949,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -746,7 +2978,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -775,7 +3007,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -804,7 +3036,7 @@
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -833,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -862,7 +3094,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -891,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -920,7 +3152,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -949,7 +3181,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -978,7 +3210,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +3268,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1065,7 +3297,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1092,21 +3324,176 @@
       </c>
       <c r="I22" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <f>SUM(B2:B22)</f>
+        <v>11.308000000000002</v>
+      </c>
+      <c r="C23" s="2">
+        <f>SUM(C2:C22)</f>
+        <v>6.3950000000000005</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:I23" si="0">SUM(D2:D22)</f>
+        <v>14.232999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>15.546999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8279999999999994</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.887</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7050000000000018</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>10.923999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B23/20</f>
+        <v>0.56540000000000012</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:I24" si="1">C23/20</f>
+        <v>0.31975000000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.71164999999999989</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77734999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44139999999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19434999999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43525000000000008</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54620000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B24</f>
+        <v>0.56540000000000012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B24+C24</f>
+        <v>0.8851500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B24+C24+D24</f>
+        <v>1.5968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B24+C24+D24+E24</f>
+        <v>2.3741500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B24+C24+D24+E24+F24</f>
+        <v>2.81555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B24+C24+D24+E24+F24+G24</f>
+        <v>3.0099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B24+C24+D24+E24+F24+G24+H24</f>
+        <v>3.4451499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B24+C24+D24+E24+F24+G24+H24+I24</f>
+        <v>3.9913499999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1114,12 +3501,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
